--- a/src/test/resources/TestData/InputData_UserSkills.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkills.xlsx
@@ -3,38 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC57872\Desktop\NumpyNinja\projects\API_LMS_Hackathon\src\test\resources\LMS_API_Hackathon_DataSheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC30FEC9-99E1-4C78-8EA0-CFF110066C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{58F6CD44-2D29-4EFD-BE77-AB187BACC095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{66CCB3E7-3A9B-41B0-9BFC-43F22BA27510}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23304" windowHeight="13224" activeTab="1" xr2:uid="{66CCB3E7-3A9B-41B0-9BFC-43F22BA27510}"/>
   </bookViews>
   <sheets>
     <sheet name="InputData_UserSkills_GET" sheetId="1" r:id="rId1"/>
+    <sheet name="InputData_UserSkills_POST" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>UserSkills_ID</t>
   </si>
@@ -82,13 +70,43 @@
   </si>
   <si>
     <t>StatusMessage</t>
+  </si>
+  <si>
+    <t>user_skill_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>Skill_id</t>
+  </si>
+  <si>
+    <t>months_of_exp</t>
+  </si>
+  <si>
+    <t>Senario</t>
+  </si>
+  <si>
+    <t>To map new user and skill</t>
+  </si>
+  <si>
+    <t>Successfully Created</t>
+  </si>
+  <si>
+    <t>U09</t>
+  </si>
+  <si>
+    <t>U10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +121,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,9 +149,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -446,17 +471,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC119ED7-CAC6-4591-A76C-C0B5335502A3}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -470,7 +495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -481,7 +506,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -495,7 +520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -509,7 +534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -523,7 +548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -537,7 +562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -554,4 +579,88 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2C2F01-0E67-471F-B131-6F010A088F24}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>201</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>201</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData/InputData_UserSkills.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkills.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{58F6CD44-2D29-4EFD-BE77-AB187BACC095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{82BD690A-82A6-45CF-8F83-6932BEB05D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="23304" windowHeight="13224" activeTab="1" xr2:uid="{66CCB3E7-3A9B-41B0-9BFC-43F22BA27510}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17520" windowHeight="13224" activeTab="1" xr2:uid="{66CCB3E7-3A9B-41B0-9BFC-43F22BA27510}"/>
   </bookViews>
   <sheets>
     <sheet name="InputData_UserSkills_GET" sheetId="1" r:id="rId1"/>
     <sheet name="InputData_UserSkills_POST" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:N9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>UserSkills_ID</t>
   </si>
@@ -72,31 +72,67 @@
     <t>StatusMessage</t>
   </si>
   <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>Skill_id</t>
+  </si>
+  <si>
+    <t>months_of_exp</t>
+  </si>
+  <si>
+    <t>Senario</t>
+  </si>
+  <si>
+    <t>Successfully Created</t>
+  </si>
+  <si>
     <t>user_skill_id</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>Skill_id</t>
-  </si>
-  <si>
-    <t>months_of_exp</t>
-  </si>
-  <si>
-    <t>Senario</t>
+    <t>U04</t>
+  </si>
+  <si>
+    <t>US15</t>
   </si>
   <si>
     <t>To map new user and skill</t>
   </si>
   <si>
-    <t>Successfully Created</t>
-  </si>
-  <si>
-    <t>U09</t>
-  </si>
-  <si>
-    <t>U10</t>
+    <t>To map new user and skill , with skill id as alpha numeric</t>
+  </si>
+  <si>
+    <t>To map new user and skill , with skill id as null</t>
+  </si>
+  <si>
+    <t>To map new user and skill , with user id as null</t>
+  </si>
+  <si>
+    <t>U07</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>To map new user and skill , with months of experience as alpha numeric</t>
+  </si>
+  <si>
+    <t>To map new user and skill , with months of experience as null</t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>Failed to create due to invalid data</t>
+  </si>
+  <si>
+    <t>To map to existing user And Skills</t>
+  </si>
+  <si>
+    <t>Failed to create as UserSkillMap already exists</t>
+  </si>
+  <si>
+    <t>Failed to create due to invalid skill Id</t>
   </si>
 </sst>
 </file>
@@ -106,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,9 +159,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,10 +186,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -472,16 +508,16 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -495,7 +531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -506,7 +542,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -520,7 +556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -534,7 +570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -548,7 +584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -562,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -583,34 +619,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2C2F01-0E67-471F-B131-6F010A088F24}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -619,47 +655,143 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>201</v>
       </c>
       <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
-      </c>
-    </row>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>400</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>400</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>400</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>400</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>400</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/test/resources/TestData/InputData_UserSkills.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkills.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{82BD690A-82A6-45CF-8F83-6932BEB05D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17520" windowHeight="13224" activeTab="1" xr2:uid="{66CCB3E7-3A9B-41B0-9BFC-43F22BA27510}"/>
+    <workbookView windowWidth="19815" windowHeight="7815" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="InputData_UserSkills_GET" sheetId="1" r:id="rId1"/>
     <sheet name="InputData_UserSkills_POST" sheetId="2" r:id="rId2"/>
+    <sheet name="InputData_UserSkills_PUT" sheetId="3" r:id="rId3"/>
+    <sheet name="InputData_UserSkills_DELETE" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:N9"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+  <si>
+    <t>Scenario</t>
+  </si>
   <si>
     <t>UserSkills_ID</t>
   </si>
@@ -30,46 +28,46 @@
     <t>StatusCode</t>
   </si>
   <si>
-    <t>Scenarios</t>
+    <t>StatusMessage</t>
+  </si>
+  <si>
+    <t>GET method for Valid UserSkillsID</t>
   </si>
   <si>
     <t>US03</t>
   </si>
   <si>
+    <t>GET method for inValid UserSkillsID</t>
+  </si>
+  <si>
     <t>US2021</t>
   </si>
   <si>
+    <t>User Skill Mapping Not Found</t>
+  </si>
+  <si>
+    <t>GET method for Alphanumeric UserSkillsID</t>
+  </si>
+  <si>
     <t>ABC01</t>
   </si>
   <si>
+    <t>GET method for  UserSkillsID with special character</t>
+  </si>
+  <si>
     <t>US@03</t>
   </si>
   <si>
-    <t>User Skill Mapping Not Found</t>
+    <t>GET method for  UserSkillsID with decimal</t>
+  </si>
+  <si>
+    <t>GET method for  UserSkillsID as blank</t>
   </si>
   <si>
     <t>Not Found</t>
   </si>
   <si>
-    <t>GET method for Valid UserSkillsID</t>
-  </si>
-  <si>
-    <t>GET method for inValid UserSkillsID</t>
-  </si>
-  <si>
-    <t>GET method for Alphanumeric UserSkillsID</t>
-  </si>
-  <si>
-    <t>GET method for  UserSkillsID with special character</t>
-  </si>
-  <si>
-    <t>GET method for  UserSkillsID with decimal</t>
-  </si>
-  <si>
-    <t>GET method for  UserSkillsID as blank</t>
-  </si>
-  <si>
-    <t>StatusMessage</t>
+    <t>user_skill_id</t>
   </si>
   <si>
     <t>user_id</t>
@@ -81,99 +79,478 @@
     <t>months_of_exp</t>
   </si>
   <si>
-    <t>Senario</t>
+    <t>To map new user and skill</t>
+  </si>
+  <si>
+    <t>U09</t>
   </si>
   <si>
     <t>Successfully Created</t>
   </si>
   <si>
-    <t>user_skill_id</t>
-  </si>
-  <si>
-    <t>U04</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>To map new user and skill</t>
+    <t>U03</t>
   </si>
   <si>
     <t>To map new user and skill , with skill id as alpha numeric</t>
   </si>
   <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>avx</t>
+  </si>
+  <si>
+    <t>Failed to create-missing mandatory fields</t>
+  </si>
+  <si>
     <t>To map new user and skill , with skill id as null</t>
   </si>
   <si>
     <t>To map new user and skill , with user id as null</t>
   </si>
   <si>
-    <t>U07</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
     <t>To map new user and skill , with months of experience as alpha numeric</t>
   </si>
   <si>
+    <t>avcd</t>
+  </si>
+  <si>
     <t>To map new user and skill , with months of experience as null</t>
   </si>
   <si>
-    <t>a11</t>
-  </si>
-  <si>
-    <t>Failed to create due to invalid data</t>
-  </si>
-  <si>
-    <t>To map to existing user And Skills</t>
-  </si>
-  <si>
-    <t>Failed to create as UserSkillMap already exists</t>
-  </si>
-  <si>
-    <t>Failed to create due to invalid skill Id</t>
+    <t>U02</t>
+  </si>
+  <si>
+    <t>To update new months of exp in existing User_skill_Id</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Successfully Updated</t>
+  </si>
+  <si>
+    <t>To update months of exp in non-existing User_skill_Id</t>
+  </si>
+  <si>
+    <t>Us2012</t>
+  </si>
+  <si>
+    <t>User Skill Mapping Not Found</t>
+  </si>
+  <si>
+    <t>To update with invalid months of exp</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>avxc</t>
+  </si>
+  <si>
+    <t>Failed to update due to invalid months of experience</t>
+  </si>
+  <si>
+    <t>Successfully deleted</t>
+  </si>
+  <si>
+    <t>User Skill Map Not Found</t>
+  </si>
+  <si>
+    <t>US20.21</t>
+  </si>
+  <si>
+    <t>USA123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -181,28 +558,336 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -251,7 +936,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -284,26 +969,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -336,23 +1004,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,97 +1145,93 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC119ED7-CAC6-4591-A76C-C0B5335502A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="22.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="25.1047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C5">
         <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -595,10 +1242,10 @@
         <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -606,193 +1253,417 @@
         <v>404</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{0D0A6852-DE75-4898-9A43-A3910796FF61}"/>
+    <hyperlink ref="B5" r:id="rId1" display="US@03"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2C2F01-0E67-471F-B131-6F010A088F24}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="47.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="16.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="15.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="17.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="38.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>201</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>201</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" spans="1:7">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
+        <v>400</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>36</v>
+      </c>
+      <c r="F5" s="4">
+        <v>400</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4">
+        <v>400</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="25.5" spans="1:7">
+      <c r="A7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4">
+        <v>400</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="25.5" spans="1:7">
+      <c r="A8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>400</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="40.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="29.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="18.1428571428571" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="67" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" ht="30" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>404</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>400</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>400</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.234</v>
+      </c>
+      <c r="D6">
+        <v>400</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="21.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="31.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="25.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>201</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>34</v>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1">
+        <v>200</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>404</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>400</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1">
+        <v>404</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>400</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1">
+        <v>404</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>400</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>400</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7">
-        <v>400</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>400</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>404</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/InputData_UserSkills.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkills.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Scenario</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>USA123</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>US19</t>
   </si>
 </sst>
 </file>
@@ -168,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="25">
@@ -1159,9 +1168,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="43.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="22.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="25.1047619047619" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="43.3333333333333" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.1428571428571" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.1047619047619" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1276,11 +1285,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="44.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="16.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="15.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="17.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="38.4285714285714" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="44.5714285714286" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.1428571428571" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.8571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.4285714285714" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="38.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1310,7 +1319,9 @@
       <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1331,7 +1342,9 @@
       <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
@@ -1432,7 +1445,9 @@
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
@@ -1465,11 +1480,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="40.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="29.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="18.1428571428571" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="67" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="40.5714285714286" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.7142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.1428571428571" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7142857142857" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="67.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1591,10 +1606,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="31.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="25.2857142857143" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.4285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.5714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.7142857142857" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/src/test/resources/TestData/InputData_UserSkills.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkills.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B494CD0C-D880-48DB-99AF-94B2E10F91A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FF4FF89B-83BE-4422-B413-9F3EB3DF58A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="20076" windowHeight="13224" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="20100" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputData_UserSkills_GET" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="InputData_UserSkills_DELETE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H11"/>
+  <oleSize ref="A1:K20"/>
 </workbook>
 </file>
 
@@ -605,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/src/test/resources/TestData/InputData_UserSkills.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkills.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FF4FF89B-83BE-4422-B413-9F3EB3DF58A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6925570F-421A-414A-A96B-2FD86B86929B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="20100" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="20124" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputData_UserSkills_GET" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="InputData_UserSkills_DELETE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
+  <oleSize ref="A1:H4"/>
 </workbook>
 </file>
 
@@ -605,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/src/test/resources/TestData/InputData_UserSkills.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkills.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6925570F-421A-414A-A96B-2FD86B86929B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{00B6ADEB-EA40-4B4B-A066-214BC8B61F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="20124" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="20268" windowHeight="13224" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputData_UserSkills_GET" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="InputData_UserSkills_DELETE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H4"/>
+  <oleSize ref="A1:I6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>Scenario</t>
   </si>
@@ -129,21 +129,12 @@
     <t>Us2012</t>
   </si>
   <si>
-    <t>User Skill Mapping Not Found</t>
-  </si>
-  <si>
-    <t>To update with invalid months of exp</t>
-  </si>
-  <si>
     <t>US13</t>
   </si>
   <si>
     <t>avxc</t>
   </si>
   <si>
-    <t>Failed to update due to invalid months of experience</t>
-  </si>
-  <si>
     <t>Successfully deleted</t>
   </si>
   <si>
@@ -205,6 +196,18 @@
   </si>
   <si>
     <t>Failed to create due to invalid user Id</t>
+  </si>
+  <si>
+    <t>To update with invalid months of exp as alphanumeric</t>
+  </si>
+  <si>
+    <t>To update with invalid months of exp as boolean</t>
+  </si>
+  <si>
+    <t>To update with invalid months of exp as decimal</t>
+  </si>
+  <si>
+    <t>Failed to update due to invalid months of experience</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -720,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -761,7 +764,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>30</v>
@@ -781,11 +784,11 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4">
         <v>4</v>
@@ -797,7 +800,7 @@
         <v>400</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1" ht="26.4">
@@ -818,12 +821,12 @@
         <v>400</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -837,7 +840,7 @@
         <v>400</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" customFormat="1">
@@ -856,7 +859,7 @@
         <v>400</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" customFormat="1">
@@ -875,16 +878,16 @@
         <v>400</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" customFormat="1" ht="26.4">
       <c r="A8" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="15">
         <v>4</v>
@@ -896,7 +899,7 @@
         <v>400</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7" customFormat="1" ht="26.4">
@@ -917,7 +920,7 @@
         <v>400</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" customFormat="1" ht="26.4">
@@ -936,7 +939,7 @@
         <v>400</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -949,7 +952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
@@ -982,7 +987,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3">
         <v>30</v>
@@ -1008,29 +1013,29 @@
         <v>404</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8">
+      <c r="A4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D4">
         <v>400</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8">
       <c r="A5" s="8" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -1042,12 +1047,12 @@
         <v>400</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8">
       <c r="A6" s="8" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -1059,7 +1064,7 @@
         <v>400</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1071,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1100,21 +1105,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C2" s="1">
         <v>200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -1123,48 +1128,48 @@
         <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1">
         <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1">
         <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/InputData_UserSkills.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkills.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{00B6ADEB-EA40-4B4B-A066-214BC8B61F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{66AB4468-1E1F-4A81-A319-E92BAE3376AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="20268" windowHeight="13224" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="20316" windowHeight="13224" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputData_UserSkills_GET" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="InputData_UserSkills_DELETE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I6"/>
+  <oleSize ref="A1:E4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>Scenario</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Successfully deleted</t>
   </si>
   <si>
-    <t>User Skill Map Not Found</t>
-  </si>
-  <si>
     <t>US20.21</t>
   </si>
   <si>
@@ -208,6 +205,12 @@
   </si>
   <si>
     <t>Failed to update due to invalid months of experience</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>User skill Map Not Found</t>
   </si>
 </sst>
 </file>
@@ -764,7 +767,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>30</v>
@@ -784,11 +787,11 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="4">
         <v>4</v>
@@ -800,7 +803,7 @@
         <v>400</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1" ht="26.4">
@@ -821,12 +824,12 @@
         <v>400</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -840,7 +843,7 @@
         <v>400</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" customFormat="1">
@@ -859,7 +862,7 @@
         <v>400</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" customFormat="1">
@@ -878,16 +881,16 @@
         <v>400</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" customFormat="1" ht="26.4">
       <c r="A8" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="15">
         <v>4</v>
@@ -899,7 +902,7 @@
         <v>400</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7" customFormat="1" ht="26.4">
@@ -920,7 +923,7 @@
         <v>400</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" customFormat="1" ht="26.4">
@@ -939,7 +942,7 @@
         <v>400</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -952,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -987,7 +990,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3">
         <v>30</v>
@@ -1018,7 +1021,7 @@
     </row>
     <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -1030,12 +1033,12 @@
         <v>400</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8">
       <c r="A5" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -1047,12 +1050,12 @@
         <v>400</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8">
       <c r="A6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -1064,7 +1067,7 @@
         <v>400</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1076,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1105,10 +1108,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1">
         <v>200</v>
@@ -1119,7 +1122,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -1128,48 +1131,48 @@
         <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1">
         <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1">
         <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/InputData_UserSkills.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkills.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{66AB4468-1E1F-4A81-A319-E92BAE3376AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{74458DF7-AB01-4A52-83FB-F97F5F13B88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="20316" windowHeight="13224" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="20340" windowHeight="13224" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputData_UserSkills_GET" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="InputData_UserSkills_DELETE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E4"/>
+  <oleSize ref="A1:E3"/>
 </workbook>
 </file>
 
@@ -39,18 +39,12 @@
     <t>US03</t>
   </si>
   <si>
-    <t>GET method for inValid UserSkillsID</t>
-  </si>
-  <si>
     <t>US2021</t>
   </si>
   <si>
     <t>User Skill Mapping Not Found</t>
   </si>
   <si>
-    <t>GET method for Alphanumeric UserSkillsID</t>
-  </si>
-  <si>
     <t>ABC01</t>
   </si>
   <si>
@@ -211,6 +205,12 @@
   </si>
   <si>
     <t>User skill Map Not Found</t>
+  </si>
+  <si>
+    <t>GET method for non existing UserSkillsID</t>
+  </si>
+  <si>
+    <t>GET method for invalid UserSkillsID</t>
   </si>
 </sst>
 </file>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -649,49 +649,49 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3">
         <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>108.8</v>
@@ -700,18 +700,18 @@
         <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>404</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
@@ -764,13 +764,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4">
         <v>4</v>
@@ -782,16 +782,16 @@
         <v>201</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4">
         <v>4</v>
@@ -803,19 +803,19 @@
         <v>400</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1" ht="26.4">
       <c r="A4" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4">
         <v>10</v>
@@ -824,12 +824,12 @@
         <v>400</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -843,16 +843,16 @@
         <v>400</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" customFormat="1">
       <c r="A6" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
@@ -862,12 +862,12 @@
         <v>400</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" customFormat="1">
       <c r="A7" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -881,16 +881,16 @@
         <v>400</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" customFormat="1" ht="26.4">
       <c r="A8" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="15">
         <v>4</v>
@@ -902,37 +902,37 @@
         <v>400</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" customFormat="1" ht="26.4">
       <c r="A9" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4">
         <v>400</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" customFormat="1" ht="26.4">
       <c r="A10" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
@@ -942,7 +942,7 @@
         <v>400</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -987,10 +987,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3">
         <v>30</v>
@@ -999,15 +999,15 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8">
       <c r="A3" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3">
         <v>45</v>
@@ -1016,32 +1016,32 @@
         <v>404</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>400</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8">
       <c r="A5" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="b">
         <v>1</v>
@@ -1050,15 +1050,15 @@
         <v>400</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8">
       <c r="A6" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3">
         <v>1.234</v>
@@ -1067,7 +1067,7 @@
         <v>400</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1108,71 +1108,71 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1">
         <v>200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1">
         <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1">
         <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/InputData_UserSkills.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkills.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{74458DF7-AB01-4A52-83FB-F97F5F13B88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5A8EC392-2EF8-4D89-9320-E2F5D837AF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="20340" windowHeight="13224" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="20412" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputData_UserSkills_GET" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="InputData_UserSkills_DELETE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E3"/>
+  <oleSize ref="A1:G6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>Scenario</t>
   </si>
@@ -201,16 +201,16 @@
     <t>Failed to update due to invalid months of experience</t>
   </si>
   <si>
+    <t>User skill Map Not Found</t>
+  </si>
+  <si>
+    <t>GET method for non existing UserSkillsID</t>
+  </si>
+  <si>
+    <t>GET method for invalid UserSkillsID</t>
+  </si>
+  <si>
     <t>US17</t>
-  </si>
-  <si>
-    <t>User skill Map Not Found</t>
-  </si>
-  <si>
-    <t>GET method for non existing UserSkillsID</t>
-  </si>
-  <si>
-    <t>GET method for invalid UserSkillsID</t>
   </si>
 </sst>
 </file>
@@ -617,9 +617,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -649,7 +649,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -726,17 +726,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="38.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="44.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="38.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -767,7 +767,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>28</v>
@@ -955,17 +955,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="67" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="67.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1080,16 +1080,16 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1131,7 +1131,7 @@
         <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1146,7 +1146,7 @@
         <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1160,7 +1160,7 @@
         <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1172,7 +1172,7 @@
         <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/InputData_UserSkills.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkills.xlsx
@@ -3,30 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5A8EC392-2EF8-4D89-9320-E2F5D837AF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{12B1E87A-2347-45E8-860E-1B0E340AF012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="20412" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="20484" windowHeight="13224" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputData_UserSkills_GET" sheetId="1" r:id="rId1"/>
     <sheet name="InputData_UserSkills_POST" sheetId="2" r:id="rId2"/>
     <sheet name="InputData_UserSkills_PUT" sheetId="3" r:id="rId3"/>
     <sheet name="InputData_UserSkills_DELETE" sheetId="4" r:id="rId4"/>
+    <sheet name="UserSkills_Authorization" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G6"/>
+  <oleSize ref="A1:Q2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>Scenario</t>
   </si>
   <si>
-    <t>UserSkills_ID</t>
-  </si>
-  <si>
     <t>StatusCode</t>
   </si>
   <si>
@@ -211,6 +209,42 @@
   </si>
   <si>
     <t>US17</t>
+  </si>
+  <si>
+    <t>SCENARIO</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>To Check Authorization without providing username and password</t>
+  </si>
+  <si>
+    <t>Unauthorized Access</t>
+  </si>
+  <si>
+    <t>To Check Authorization with invalid username and correct password</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>2xx@Success</t>
+  </si>
+  <si>
+    <t>To Check Authorization with valid username and invalid password</t>
+  </si>
+  <si>
+    <t>APIPROCESSING</t>
+  </si>
+  <si>
+    <t>New@2022</t>
+  </si>
+  <si>
+    <t>To Check Authorization with valid username and password</t>
   </si>
 </sst>
 </file>
@@ -220,7 +254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,21 +308,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -298,7 +359,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -331,6 +392,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -612,14 +677,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -627,21 +692,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -649,49 +714,49 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>10</v>
       </c>
       <c r="C5">
         <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>108.8</v>
@@ -700,18 +765,18 @@
         <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>404</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -726,17 +791,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="44.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="38.44140625" collapsed="true"/>
+    <col min="1" max="1" width="44.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="38.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -744,33 +809,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4">
         <v>4</v>
@@ -782,16 +847,16 @@
         <v>201</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4">
         <v>4</v>
@@ -803,19 +868,19 @@
         <v>400</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1" ht="26.4">
       <c r="A4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="4">
         <v>10</v>
@@ -824,12 +889,12 @@
         <v>400</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -843,16 +908,16 @@
         <v>400</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" customFormat="1">
       <c r="A6" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
@@ -862,12 +927,12 @@
         <v>400</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" customFormat="1">
       <c r="A7" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -881,16 +946,16 @@
         <v>400</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" customFormat="1" ht="26.4">
       <c r="A8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="15">
         <v>4</v>
@@ -902,37 +967,37 @@
         <v>400</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" customFormat="1" ht="26.4">
       <c r="A9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4">
         <v>400</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" customFormat="1" ht="26.4">
       <c r="A10" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
@@ -942,7 +1007,7 @@
         <v>400</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -956,16 +1021,16 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="67.0" collapsed="true"/>
+    <col min="1" max="1" width="40.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="67" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -973,24 +1038,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3">
         <v>30</v>
@@ -999,15 +1064,15 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8">
       <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
       </c>
       <c r="C3" s="3">
         <v>45</v>
@@ -1016,32 +1081,32 @@
         <v>404</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D4">
         <v>400</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8">
       <c r="A5" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="b">
         <v>1</v>
@@ -1050,15 +1115,15 @@
         <v>400</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8">
       <c r="A6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3">
         <v>1.234</v>
@@ -1067,7 +1132,7 @@
         <v>400</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1080,16 +1145,16 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1097,82 +1162,82 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1">
         <v>200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1">
         <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
         <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1181,4 +1246,103 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26A30B7-01E7-414C-ABA8-D283AC011458}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.4" thickBot="1">
+      <c r="A1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="115.8" thickBot="1">
+      <c r="A2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2">
+        <v>401</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="115.8" thickBot="1">
+      <c r="A3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>401</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="115.8" thickBot="1">
+      <c r="A4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>401</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="101.4" thickBot="1">
+      <c r="A5" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{12AF6B0B-EA71-45D6-B989-F7DBF05D18A4}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{7ADCE5AB-6BE4-44A0-91FA-2ACA56202CA4}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{47A588A8-6F76-4413-B9BD-6211BB0DA14C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData/InputData_UserSkills.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t>Scenario</t>
   </si>
@@ -682,9 +682,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -797,11 +797,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="38.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="44.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="38.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1026,11 +1026,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="67" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="67.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1150,11 +1150,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1258,7 +1258,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.77734375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.4" thickBot="1">

--- a/src/test/resources/TestData/InputData_UserSkills.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
   <si>
     <t>Scenario</t>
   </si>
@@ -1258,7 +1258,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.77734375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.4" thickBot="1">

--- a/src/test/resources/TestData/InputData_UserSkills.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="76">
   <si>
     <t>Scenario</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>To Check Authorization with valid username and password</t>
+  </si>
+  <si>
+    <t>US11</t>
   </si>
 </sst>
 </file>
@@ -832,7 +835,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>27</v>
@@ -854,7 +857,9 @@
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>41</v>
       </c>

--- a/src/test/resources/TestData/InputData_UserSkills.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
   <si>
     <t>Scenario</t>
   </si>

--- a/src/test/resources/TestData/InputData_UserSkills.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
   <si>
     <t>Scenario</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>US11</t>
+  </si>
+  <si>
+    <t>US14</t>
   </si>
 </sst>
 </file>
@@ -958,7 +961,9 @@
       <c r="A8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>52</v>
       </c>

--- a/src/test/resources/TestData/InputData_UserSkills.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
   <si>
     <t>Scenario</t>
   </si>
